--- a/dBu meter calculation.xlsx
+++ b/dBu meter calculation.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Documents\GitHub\DMH-Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6889A2DB-296C-4952-A776-3CA66495079B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E4304B-DD82-42CB-9F4B-034D0DB18BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{34920A5C-097A-4EEA-8361-CAFEEE971C72}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="11v75" sheetId="2" r:id="rId1"/>
+    <sheet name="10V" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
   <si>
     <t>dBu</t>
   </si>
@@ -61,9 +62,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +76,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -100,10 +109,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,11 +447,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D0D715C-B6A8-4B52-83D1-951A7478EB04}">
-  <dimension ref="G4:L16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62D02EB-515C-4A0B-BB92-62D83B04599D}">
+  <dimension ref="G4:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,8 +473,7 @@
         <v>11.75</v>
       </c>
       <c r="J5">
-        <f>SUM(J6:J15)</f>
-        <v>174.47</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="7:12" x14ac:dyDescent="0.3">
@@ -477,17 +486,12 @@
       <c r="I6" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="2">
-        <v>68</v>
-      </c>
-      <c r="K6" s="1">
-        <f>J6/$J$5</f>
-        <v>0.38975181979709977</v>
-      </c>
-      <c r="L6" s="1">
-        <f>K6*$I$5</f>
-        <v>4.5795838826159221</v>
-      </c>
+      <c r="J6" s="3">
+        <f>J5-SUM(J7:J15)</f>
+        <v>81.349999999999994</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
     </row>
     <row r="7" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G7">
@@ -502,15 +506,15 @@
         <v>0.18600000000000003</v>
       </c>
       <c r="J7" s="2">
-        <v>32.4</v>
+        <v>5.49</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" ref="K7:K15" si="1">J7/$J$5</f>
-        <v>0.18570527884450047</v>
+        <f>SUM(J7:J15)/J5</f>
+        <v>0.1865</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" ref="L7:L16" si="2">K7*$I$5</f>
-        <v>2.1820370264228806</v>
+        <f t="shared" ref="L7:L15" si="1">K7*$I$5</f>
+        <v>2.1913749999999999</v>
       </c>
     </row>
     <row r="8" spans="7:12" x14ac:dyDescent="0.3">
@@ -526,15 +530,15 @@
         <v>0.13170212765957448</v>
       </c>
       <c r="J8" s="2">
-        <v>23.3</v>
+        <v>3.83</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1335473147245945</v>
+        <f>SUM(J8:J15)/J5</f>
+        <v>0.13160000000000002</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="2"/>
-        <v>1.5691809480139853</v>
+        <f t="shared" si="1"/>
+        <v>1.5463000000000002</v>
       </c>
     </row>
     <row r="9" spans="7:12" x14ac:dyDescent="0.3">
@@ -550,15 +554,15 @@
         <v>9.3191489361702129E-2</v>
       </c>
       <c r="J9" s="2">
-        <v>16.2</v>
+        <v>2.74</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="1"/>
-        <v>9.2852639422250235E-2</v>
+        <f>SUM(J9:J15)/J5</f>
+        <v>9.3299999999999994E-2</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="2"/>
-        <v>1.0910185132114403</v>
+        <f t="shared" si="1"/>
+        <v>1.0962749999999999</v>
       </c>
     </row>
     <row r="10" spans="7:12" x14ac:dyDescent="0.3">
@@ -574,15 +578,15 @@
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="J10" s="2">
-        <v>11.5</v>
+        <v>1.91</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="1"/>
-        <v>6.5913910700980113E-2</v>
+        <f>SUM(J10:J15)/J5</f>
+        <v>6.5899999999999986E-2</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="2"/>
-        <v>0.77448845073651629</v>
+        <f t="shared" si="1"/>
+        <v>0.77432499999999982</v>
       </c>
     </row>
     <row r="11" spans="7:12" x14ac:dyDescent="0.3">
@@ -598,15 +602,15 @@
         <v>4.6723404255319151E-2</v>
       </c>
       <c r="J11" s="2">
-        <v>8.1999999999999993</v>
+        <v>1.37</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="1"/>
-        <v>4.6999484152003203E-2</v>
+        <f>SUM(J11:J15)/J5</f>
+        <v>4.6799999999999994E-2</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="2"/>
-        <v>0.55224393878603761</v>
+        <f t="shared" si="1"/>
+        <v>0.54989999999999994</v>
       </c>
     </row>
     <row r="12" spans="7:12" x14ac:dyDescent="0.3">
@@ -622,15 +626,15 @@
         <v>3.3063829787234045E-2</v>
       </c>
       <c r="J12" s="2">
-        <v>5.76</v>
+        <v>0.98</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="1"/>
-        <v>3.3014271794577867E-2</v>
+        <f>SUM(J12:J15)/J5</f>
+        <v>3.3099999999999997E-2</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="2"/>
-        <v>0.38791769358628991</v>
+        <f t="shared" si="1"/>
+        <v>0.38892499999999997</v>
       </c>
     </row>
     <row r="13" spans="7:12" x14ac:dyDescent="0.3">
@@ -646,15 +650,15 @@
         <v>2.3404255319148939E-2</v>
       </c>
       <c r="J13" s="2">
-        <v>4.12</v>
+        <v>0.68</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="1"/>
-        <v>2.3614374964177225E-2</v>
+        <f>SUM(J13:J15)/J5</f>
+        <v>2.3300000000000001E-2</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="2"/>
-        <v>0.2774689058290824</v>
+        <f t="shared" si="1"/>
+        <v>0.27377499999999999</v>
       </c>
     </row>
     <row r="14" spans="7:12" x14ac:dyDescent="0.3">
@@ -670,15 +674,15 @@
         <v>1.6595744680851066E-2</v>
       </c>
       <c r="J14" s="2">
-        <v>2.94</v>
+        <v>0.47</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="1"/>
-        <v>1.6851034561815786E-2</v>
+        <f>SUM(J14:J15)/J5</f>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="2"/>
-        <v>0.19799965610133549</v>
+        <f t="shared" si="1"/>
+        <v>0.19387500000000002</v>
       </c>
     </row>
     <row r="15" spans="7:12" x14ac:dyDescent="0.3">
@@ -694,20 +698,321 @@
         <v>1.1744680851063831E-2</v>
       </c>
       <c r="J15" s="2">
-        <v>2.0499999999999998</v>
+        <v>1.18</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="1"/>
-        <v>1.1749871038000801E-2</v>
+        <f t="shared" ref="K15:K23" si="2">J15/$J$5</f>
+        <v>1.18E-2</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="2"/>
-        <v>0.1380609846965094</v>
+        <f t="shared" si="1"/>
+        <v>0.13865</v>
       </c>
     </row>
     <row r="16" spans="7:12" x14ac:dyDescent="0.3">
       <c r="I16" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <v>0.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B938745-C031-44EB-8DE0-C90EAC00962D}">
+  <dimension ref="G4:L22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3">
+        <f>J5-SUM(J7:J15)</f>
+        <v>78063</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1">
+        <f>4.371/2</f>
+        <v>2.1855000000000002</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" ref="I7:I14" si="0">H7/$I$5</f>
+        <v>0.21855000000000002</v>
+      </c>
+      <c r="J7" s="2">
+        <v>6490</v>
+      </c>
+      <c r="K7" s="1">
+        <f>SUM(J7:J15)/J5</f>
+        <v>0.21937000000000001</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" ref="L7:L15" si="1">K7*$I$5</f>
+        <v>2.1937000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <f>3.095/2</f>
+        <v>1.5475000000000001</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15475</v>
+      </c>
+      <c r="J8" s="2">
+        <v>4530</v>
+      </c>
+      <c r="K8" s="1">
+        <f>SUM(J8:J15)/J5</f>
+        <v>0.15447</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5447</v>
+      </c>
+    </row>
+    <row r="9" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>2.19/2</f>
+        <v>1.095</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1095</v>
+      </c>
+      <c r="J9" s="2">
+        <v>3160</v>
+      </c>
+      <c r="K9" s="1">
+        <f>SUM(J9:J15)/J5</f>
+        <v>0.10917</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0917000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>-3</v>
+      </c>
+      <c r="H10" s="1">
+        <f>1.551/2</f>
+        <v>0.77549999999999997</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>7.7549999999999994E-2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2260</v>
+      </c>
+      <c r="K10" s="1">
+        <f>SUM(J10:J15)/J5</f>
+        <v>7.757E-2</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.77570000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>-6</v>
+      </c>
+      <c r="H11">
+        <f>1.098/2</f>
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>5.4900000000000004E-2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1620</v>
+      </c>
+      <c r="K11" s="1">
+        <f>SUM(J11:J15)/J5</f>
+        <v>5.4969999999999998E-2</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.54969999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>-9</v>
+      </c>
+      <c r="H12" s="1">
+        <f>0.777/2</f>
+        <v>0.38850000000000001</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>3.8850000000000003E-2</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1130</v>
+      </c>
+      <c r="K12" s="1">
+        <f>SUM(J12:J15)/J5</f>
+        <v>3.8769999999999999E-2</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.38769999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>-12</v>
+      </c>
+      <c r="H13">
+        <f>0.55/2</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>787</v>
+      </c>
+      <c r="K13" s="1">
+        <f>SUM(J13:J15)/J5</f>
+        <v>2.7470000000000001E-2</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.2747</v>
+      </c>
+    </row>
+    <row r="14" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>-18</v>
+      </c>
+      <c r="H14">
+        <f>0.39/2</f>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.95E-2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>560</v>
+      </c>
+      <c r="K14" s="1">
+        <f>SUM(J14:J15)/J5</f>
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>-21</v>
+      </c>
+      <c r="H15">
+        <f>0.276/2</f>
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="I15" s="1">
+        <f>H15/$I$5</f>
+        <v>1.3800000000000002E-2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1400</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" ref="K15:K23" si="2">J15/$J$5</f>
+        <v>1.4E-2</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <v>76800</v>
+      </c>
+    </row>
+    <row r="21" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="22" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <f>J21+J20</f>
+        <v>78070</v>
       </c>
     </row>
   </sheetData>

--- a/dBu meter calculation.xlsx
+++ b/dBu meter calculation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Documents\GitHub\DMH-Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CC431F-3169-44F1-9A9D-9FEEABB9083C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF86C738-54B7-479B-BF50-CA34E7C9B7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{34920A5C-097A-4EEA-8361-CAFEEE971C72}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
   <si>
     <t>dBu</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>total</t>
-  </si>
-  <si>
-    <t>TOTAL R (kOhms)</t>
   </si>
   <si>
     <t>TOTAL R (Ohms)</t>
@@ -113,11 +110,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62D02EB-515C-4A0B-BB92-62D83B04599D}">
-  <dimension ref="G4:L20"/>
+  <dimension ref="E4:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,7 +462,7 @@
     <col min="10" max="10" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="7:14" x14ac:dyDescent="0.3">
       <c r="I4" t="s">
         <v>3</v>
       </c>
@@ -472,15 +470,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="7:14" x14ac:dyDescent="0.3">
       <c r="I5">
-        <v>11.7</v>
+        <v>11.75</v>
       </c>
       <c r="J5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="7:12" x14ac:dyDescent="0.3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G6" t="s">
         <v>0</v>
       </c>
@@ -491,13 +489,17 @@
         <v>2</v>
       </c>
       <c r="J6" s="3">
-        <f>J5-SUM(J7:J15)</f>
-        <v>81.349999999999994</v>
+        <v>82000</v>
       </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="L6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G7">
         <v>6</v>
       </c>
@@ -507,21 +509,29 @@
       </c>
       <c r="I7" s="1">
         <f t="shared" ref="I7:I14" si="0">H7/$I$5</f>
-        <v>0.18679487179487184</v>
-      </c>
-      <c r="J7" s="2">
-        <v>5.49</v>
+        <v>0.18600000000000003</v>
+      </c>
+      <c r="J7" s="4">
+        <v>5600</v>
       </c>
       <c r="K7" s="1">
-        <f>SUM(J7:J15)/J5</f>
-        <v>0.1865</v>
+        <f>SUM(J7:J16)/J5</f>
+        <v>0.18840000000000001</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" ref="L7:L15" si="1">K7*$I$5</f>
-        <v>2.1820499999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="7:12" x14ac:dyDescent="0.3">
+        <v>2.2137000000000002</v>
+      </c>
+      <c r="M7" s="1">
+        <f>SUM(J7:J16)/SUM(J6:J16)</f>
+        <v>0.18683062276874257</v>
+      </c>
+      <c r="N7" s="1">
+        <f>M7*$I$5</f>
+        <v>2.1952598175327251</v>
+      </c>
+    </row>
+    <row r="8" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G8">
         <v>3</v>
       </c>
@@ -531,21 +541,29 @@
       </c>
       <c r="I8" s="1">
         <f t="shared" si="0"/>
-        <v>0.13226495726495729</v>
-      </c>
-      <c r="J8" s="2">
-        <v>3.83</v>
+        <v>0.13170212765957448</v>
+      </c>
+      <c r="J8" s="4">
+        <v>3900</v>
       </c>
       <c r="K8" s="1">
-        <f>SUM(J8:J15)/J5</f>
-        <v>0.13160000000000002</v>
+        <f>SUM(J8:J16)/J5</f>
+        <v>0.13239999999999999</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="1"/>
-        <v>1.5397200000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="7:12" x14ac:dyDescent="0.3">
+        <v>1.5556999999999999</v>
+      </c>
+      <c r="M8" s="1">
+        <f>SUM(J8:J16)/SUM(J6:J16)</f>
+        <v>0.13129710432368108</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" ref="N8:N16" si="2">M8*$I$5</f>
+        <v>1.5427409758032526</v>
+      </c>
+    </row>
+    <row r="9" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G9">
         <v>0</v>
       </c>
@@ -555,21 +573,29 @@
       </c>
       <c r="I9" s="1">
         <f t="shared" si="0"/>
-        <v>9.358974358974359E-2</v>
-      </c>
-      <c r="J9" s="2">
-        <v>2.74</v>
+        <v>9.3191489361702129E-2</v>
+      </c>
+      <c r="J9" s="4">
+        <v>2700</v>
       </c>
       <c r="K9" s="1">
-        <f>SUM(J9:J15)/J5</f>
-        <v>9.3299999999999994E-2</v>
+        <f>SUM(J9:J16)/J5</f>
+        <v>9.3399999999999997E-2</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="1"/>
-        <v>1.09161</v>
-      </c>
-    </row>
-    <row r="10" spans="7:12" x14ac:dyDescent="0.3">
+        <v>1.09745</v>
+      </c>
+      <c r="M9" s="1">
+        <f>SUM(J9:J16)/SUM(J6:J16)</f>
+        <v>9.2621975406584692E-2</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0883082110273701</v>
+      </c>
+    </row>
+    <row r="10" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G10">
         <v>-3</v>
       </c>
@@ -579,21 +605,29 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
-        <v>6.628205128205128E-2</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1.91</v>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="J10" s="4">
+        <v>2000</v>
       </c>
       <c r="K10" s="1">
-        <f>SUM(J10:J15)/J5</f>
-        <v>6.5899999999999986E-2</v>
+        <f>SUM(J10:J16)/J5</f>
+        <v>6.6400000000000001E-2</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="1"/>
-        <v>0.77102999999999977</v>
-      </c>
-    </row>
-    <row r="11" spans="7:12" x14ac:dyDescent="0.3">
+        <v>0.7802</v>
+      </c>
+      <c r="M10" s="1">
+        <f>SUM(J10:J16)/SUM(J6:J16)</f>
+        <v>6.5846886156287185E-2</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.77370091233637439</v>
+      </c>
+    </row>
+    <row r="11" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G11">
         <v>-6</v>
       </c>
@@ -603,21 +637,29 @@
       </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
-        <v>4.6923076923076928E-2</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1.37</v>
+        <v>4.6723404255319151E-2</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1300</v>
       </c>
       <c r="K11" s="1">
-        <f>SUM(J11:J15)/J5</f>
-        <v>4.6799999999999994E-2</v>
+        <f>SUM(J11:J16)/J5</f>
+        <v>4.6399999999999997E-2</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="1"/>
-        <v>0.54755999999999994</v>
-      </c>
-    </row>
-    <row r="12" spans="7:12" x14ac:dyDescent="0.3">
+        <v>0.54519999999999991</v>
+      </c>
+      <c r="M11" s="1">
+        <f>SUM(J11:J16)/SUM(J6:J16)</f>
+        <v>4.6013486711622371E-2</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.54065846886156288</v>
+      </c>
+    </row>
+    <row r="12" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G12">
         <v>-9</v>
       </c>
@@ -627,21 +669,29 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" si="0"/>
-        <v>3.3205128205128207E-2</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0.98</v>
+        <v>3.3063829787234045E-2</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1000</v>
       </c>
       <c r="K12" s="1">
-        <f>SUM(J12:J15)/J5</f>
-        <v>3.3099999999999997E-2</v>
+        <f>SUM(J12:J16)/J5</f>
+        <v>3.3399999999999999E-2</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="1"/>
-        <v>0.38726999999999995</v>
-      </c>
-    </row>
-    <row r="13" spans="7:12" x14ac:dyDescent="0.3">
+        <v>0.39244999999999997</v>
+      </c>
+      <c r="M12" s="1">
+        <f>SUM(J12:J16)/SUM(J6:J16)</f>
+        <v>3.3121777072590244E-2</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="2"/>
+        <v>0.38918088060293538</v>
+      </c>
+    </row>
+    <row r="13" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G13">
         <v>-12</v>
       </c>
@@ -651,21 +701,29 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" si="0"/>
-        <v>2.3504273504273508E-2</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0.68</v>
+        <v>2.3404255319148939E-2</v>
+      </c>
+      <c r="J13" s="4">
+        <v>680</v>
       </c>
       <c r="K13" s="1">
-        <f>SUM(J13:J15)/J5</f>
-        <v>2.3300000000000001E-2</v>
+        <f>SUM(J13:J16)/J5</f>
+        <v>2.3400000000000001E-2</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="1"/>
-        <v>0.27261000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="7:12" x14ac:dyDescent="0.3">
+        <v>0.27495000000000003</v>
+      </c>
+      <c r="M13" s="1">
+        <f>SUM(J13:J16)/SUM(J6:J16)</f>
+        <v>2.3205077350257834E-2</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.27265965886552956</v>
+      </c>
+    </row>
+    <row r="14" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G14">
         <v>-15</v>
       </c>
@@ -675,21 +733,29 @@
       </c>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
-        <v>1.666666666666667E-2</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0.47</v>
+        <v>1.6595744680851066E-2</v>
+      </c>
+      <c r="J14" s="4">
+        <v>510</v>
       </c>
       <c r="K14" s="1">
-        <f>SUM(J14:J15)/J5</f>
-        <v>1.6500000000000001E-2</v>
+        <f>SUM(J14:J16)/J5</f>
+        <v>1.66E-2</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="1"/>
-        <v>0.19305</v>
-      </c>
-    </row>
-    <row r="15" spans="7:12" x14ac:dyDescent="0.3">
+        <v>0.19505</v>
+      </c>
+      <c r="M14" s="1">
+        <f>SUM(J14:J16)/SUM(J6:J16)</f>
+        <v>1.6461721539071796E-2</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.1934252280840936</v>
+      </c>
+    </row>
+    <row r="15" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G15">
         <v>-18</v>
       </c>
@@ -699,37 +765,62 @@
       </c>
       <c r="I15" s="1">
         <f>H15/$I$5</f>
-        <v>1.1794871794871797E-2</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1.18</v>
+        <v>1.1744680851063831E-2</v>
+      </c>
+      <c r="J15" s="4">
+        <v>330</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" ref="K15" si="2">J15/$J$5</f>
-        <v>1.18E-2</v>
+        <f>SUM(J15:J16)/J6</f>
+        <v>1.4024390243902439E-2</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" si="1"/>
-        <v>0.13805999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="7:12" x14ac:dyDescent="0.3">
+        <v>0.16478658536585367</v>
+      </c>
+      <c r="M15" s="1">
+        <f>SUM(J15:J16)/SUM(J6:J16)</f>
+        <v>1.1404204680682269E-2</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="2"/>
+        <v>0.13399940499801666</v>
+      </c>
+    </row>
+    <row r="16" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G16">
         <v>-21</v>
       </c>
-      <c r="I16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J19">
-        <v>80.599999999999994</v>
-      </c>
-    </row>
-    <row r="20" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J20">
-        <v>0.75</v>
-      </c>
+      <c r="H16" s="1">
+        <f>0.195/2</f>
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="I16" s="1">
+        <f>H16/$I$5</f>
+        <v>8.2978723404255328E-3</v>
+      </c>
+      <c r="J16" s="4">
+        <v>820</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" ref="K16" si="3">J16/$J$5</f>
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" ref="L16" si="4">K16*$I$5</f>
+        <v>9.6350000000000005E-2</v>
+      </c>
+      <c r="M16" s="1">
+        <f>SUM(J16)/SUM(J6:J16)</f>
+        <v>8.1316937723125739E-3</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="2"/>
+        <v>9.5547401824672737E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -755,7 +846,7 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="7:12" x14ac:dyDescent="0.3">
@@ -1029,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFC1236-186E-4F8D-ACF7-7671CAF785F5}">
-  <dimension ref="G4:L14"/>
+  <dimension ref="G4:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1046,7 +1137,7 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="7:12" x14ac:dyDescent="0.3">
@@ -1054,7 +1145,8 @@
         <v>11.75</v>
       </c>
       <c r="J5">
-        <v>100000</v>
+        <f>SUM(J6:J9)</f>
+        <v>104500</v>
       </c>
     </row>
     <row r="6" spans="7:12" x14ac:dyDescent="0.3">
@@ -1068,13 +1160,17 @@
         <v>2</v>
       </c>
       <c r="J6" s="3">
-        <f>J5-SUM(J7:J9)</f>
-        <v>53130</v>
+        <v>56000</v>
       </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>14</v>
+      </c>
       <c r="H7" s="1">
         <v>5.5</v>
       </c>
@@ -1086,17 +1182,17 @@
         <v>8200</v>
       </c>
       <c r="K7" s="1">
-        <f>SUM(J7:J9)/J5</f>
-        <v>0.46870000000000001</v>
+        <f>SUM(J7:J9)/SUM(J6:J9)</f>
+        <v>0.46411483253588515</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" ref="L7:L9" si="1">K7*$I$5</f>
-        <v>5.507225</v>
+        <v>5.4533492822966503</v>
       </c>
     </row>
     <row r="8" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G8">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="H8" s="1">
         <v>4.5</v>
@@ -1106,18 +1202,21 @@
         <v>0.38297872340425532</v>
       </c>
       <c r="J8" s="2">
-        <v>37400</v>
+        <v>39000</v>
       </c>
       <c r="K8" s="1">
-        <f>SUM(J8:J9)/$J$5</f>
-        <v>0.38669999999999999</v>
+        <f>SUM(J8:J9)/SUM(J6:J9)</f>
+        <v>0.38564593301435407</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="1"/>
-        <v>4.5437250000000002</v>
+        <v>4.5313397129186601</v>
       </c>
     </row>
     <row r="9" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>-17</v>
+      </c>
       <c r="H9" s="1">
         <f>0.15</f>
         <v>0.15</v>
@@ -1127,30 +1226,20 @@
         <v>1.276595744680851E-2</v>
       </c>
       <c r="J9" s="2">
-        <v>1270</v>
+        <v>1300</v>
       </c>
       <c r="K9" s="1">
-        <f>SUM(J9:J9)/$J$5</f>
-        <v>1.2699999999999999E-2</v>
+        <f>SUM(J9:J9)/SUM(J6:J9)</f>
+        <v>1.2440191387559809E-2</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="1"/>
-        <v>0.149225</v>
+        <v>0.14617224880382776</v>
       </c>
     </row>
     <row r="10" spans="7:12" x14ac:dyDescent="0.3">
       <c r="I10" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="J13">
-        <v>52300</v>
-      </c>
-    </row>
-    <row r="14" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="J14">
-        <v>820</v>
       </c>
     </row>
   </sheetData>

--- a/dBu meter calculation.xlsx
+++ b/dBu meter calculation.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Documents\GitHub\DMH-Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Engineering\GitHub\DMH-Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF86C738-54B7-479B-BF50-CA34E7C9B7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9C0A4A-C26E-4D97-943F-33D4D6B1B5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{34920A5C-097A-4EEA-8361-CAFEEE971C72}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34920A5C-097A-4EEA-8361-CAFEEE971C72}"/>
   </bookViews>
   <sheets>
     <sheet name="Out 11v75" sheetId="2" r:id="rId1"/>
     <sheet name="10V" sheetId="3" r:id="rId2"/>
     <sheet name="In 11v75" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -452,17 +441,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62D02EB-515C-4A0B-BB92-62D83B04599D}">
   <dimension ref="E4:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="7:14" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
         <v>3</v>
       </c>
@@ -470,15 +459,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="7:14" x14ac:dyDescent="0.25">
       <c r="I5">
-        <v>11.75</v>
+        <v>11.7</v>
       </c>
       <c r="J5">
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
         <v>0</v>
       </c>
@@ -499,7 +488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G7">
         <v>6</v>
       </c>
@@ -509,7 +498,7 @@
       </c>
       <c r="I7" s="1">
         <f t="shared" ref="I7:I14" si="0">H7/$I$5</f>
-        <v>0.18600000000000003</v>
+        <v>0.18679487179487184</v>
       </c>
       <c r="J7" s="4">
         <v>5600</v>
@@ -520,7 +509,7 @@
       </c>
       <c r="L7" s="1">
         <f t="shared" ref="L7:L15" si="1">K7*$I$5</f>
-        <v>2.2137000000000002</v>
+        <v>2.2042799999999998</v>
       </c>
       <c r="M7" s="1">
         <f>SUM(J7:J16)/SUM(J6:J16)</f>
@@ -528,10 +517,10 @@
       </c>
       <c r="N7" s="1">
         <f>M7*$I$5</f>
-        <v>2.1952598175327251</v>
-      </c>
-    </row>
-    <row r="8" spans="7:14" x14ac:dyDescent="0.3">
+        <v>2.1859182863942879</v>
+      </c>
+    </row>
+    <row r="8" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G8">
         <v>3</v>
       </c>
@@ -541,7 +530,7 @@
       </c>
       <c r="I8" s="1">
         <f t="shared" si="0"/>
-        <v>0.13170212765957448</v>
+        <v>0.13226495726495729</v>
       </c>
       <c r="J8" s="4">
         <v>3900</v>
@@ -552,7 +541,7 @@
       </c>
       <c r="L8" s="1">
         <f t="shared" si="1"/>
-        <v>1.5556999999999999</v>
+        <v>1.5490799999999998</v>
       </c>
       <c r="M8" s="1">
         <f>SUM(J8:J16)/SUM(J6:J16)</f>
@@ -560,10 +549,10 @@
       </c>
       <c r="N8" s="1">
         <f t="shared" ref="N8:N16" si="2">M8*$I$5</f>
-        <v>1.5427409758032526</v>
-      </c>
-    </row>
-    <row r="9" spans="7:14" x14ac:dyDescent="0.3">
+        <v>1.5361761205870685</v>
+      </c>
+    </row>
+    <row r="9" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G9">
         <v>0</v>
       </c>
@@ -573,7 +562,7 @@
       </c>
       <c r="I9" s="1">
         <f t="shared" si="0"/>
-        <v>9.3191489361702129E-2</v>
+        <v>9.358974358974359E-2</v>
       </c>
       <c r="J9" s="4">
         <v>2700</v>
@@ -584,7 +573,7 @@
       </c>
       <c r="L9" s="1">
         <f t="shared" si="1"/>
-        <v>1.09745</v>
+        <v>1.0927799999999999</v>
       </c>
       <c r="M9" s="1">
         <f>SUM(J9:J16)/SUM(J6:J16)</f>
@@ -592,10 +581,10 @@
       </c>
       <c r="N9" s="1">
         <f t="shared" si="2"/>
-        <v>1.0883082110273701</v>
-      </c>
-    </row>
-    <row r="10" spans="7:14" x14ac:dyDescent="0.3">
+        <v>1.0836771122570408</v>
+      </c>
+    </row>
+    <row r="10" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G10">
         <v>-3</v>
       </c>
@@ -605,7 +594,7 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
-        <v>6.6000000000000003E-2</v>
+        <v>6.628205128205128E-2</v>
       </c>
       <c r="J10" s="4">
         <v>2000</v>
@@ -616,7 +605,7 @@
       </c>
       <c r="L10" s="1">
         <f t="shared" si="1"/>
-        <v>0.7802</v>
+        <v>0.77688000000000001</v>
       </c>
       <c r="M10" s="1">
         <f>SUM(J10:J16)/SUM(J6:J16)</f>
@@ -624,10 +613,10 @@
       </c>
       <c r="N10" s="1">
         <f t="shared" si="2"/>
-        <v>0.77370091233637439</v>
-      </c>
-    </row>
-    <row r="11" spans="7:14" x14ac:dyDescent="0.3">
+        <v>0.77040856802856006</v>
+      </c>
+    </row>
+    <row r="11" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G11">
         <v>-6</v>
       </c>
@@ -637,7 +626,7 @@
       </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
-        <v>4.6723404255319151E-2</v>
+        <v>4.6923076923076928E-2</v>
       </c>
       <c r="J11" s="4">
         <v>1300</v>
@@ -648,7 +637,7 @@
       </c>
       <c r="L11" s="1">
         <f t="shared" si="1"/>
-        <v>0.54519999999999991</v>
+        <v>0.54287999999999992</v>
       </c>
       <c r="M11" s="1">
         <f>SUM(J11:J16)/SUM(J6:J16)</f>
@@ -656,10 +645,10 @@
       </c>
       <c r="N11" s="1">
         <f t="shared" si="2"/>
-        <v>0.54065846886156288</v>
-      </c>
-    </row>
-    <row r="12" spans="7:14" x14ac:dyDescent="0.3">
+        <v>0.53835779452598176</v>
+      </c>
+    </row>
+    <row r="12" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G12">
         <v>-9</v>
       </c>
@@ -669,7 +658,7 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" si="0"/>
-        <v>3.3063829787234045E-2</v>
+        <v>3.3205128205128207E-2</v>
       </c>
       <c r="J12" s="4">
         <v>1000</v>
@@ -680,7 +669,7 @@
       </c>
       <c r="L12" s="1">
         <f t="shared" si="1"/>
-        <v>0.39244999999999997</v>
+        <v>0.39077999999999996</v>
       </c>
       <c r="M12" s="1">
         <f>SUM(J12:J16)/SUM(J6:J16)</f>
@@ -688,10 +677,10 @@
       </c>
       <c r="N12" s="1">
         <f t="shared" si="2"/>
-        <v>0.38918088060293538</v>
-      </c>
-    </row>
-    <row r="13" spans="7:14" x14ac:dyDescent="0.3">
+        <v>0.38752479174930582</v>
+      </c>
+    </row>
+    <row r="13" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G13">
         <v>-12</v>
       </c>
@@ -701,7 +690,7 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" si="0"/>
-        <v>2.3404255319148939E-2</v>
+        <v>2.3504273504273508E-2</v>
       </c>
       <c r="J13" s="4">
         <v>680</v>
@@ -712,7 +701,7 @@
       </c>
       <c r="L13" s="1">
         <f t="shared" si="1"/>
-        <v>0.27495000000000003</v>
+        <v>0.27377999999999997</v>
       </c>
       <c r="M13" s="1">
         <f>SUM(J13:J16)/SUM(J6:J16)</f>
@@ -720,10 +709,10 @@
       </c>
       <c r="N13" s="1">
         <f t="shared" si="2"/>
-        <v>0.27265965886552956</v>
-      </c>
-    </row>
-    <row r="14" spans="7:14" x14ac:dyDescent="0.3">
+        <v>0.27149940499801667</v>
+      </c>
+    </row>
+    <row r="14" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G14">
         <v>-15</v>
       </c>
@@ -733,7 +722,7 @@
       </c>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
-        <v>1.6595744680851066E-2</v>
+        <v>1.666666666666667E-2</v>
       </c>
       <c r="J14" s="4">
         <v>510</v>
@@ -744,7 +733,7 @@
       </c>
       <c r="L14" s="1">
         <f t="shared" si="1"/>
-        <v>0.19505</v>
+        <v>0.19422</v>
       </c>
       <c r="M14" s="1">
         <f>SUM(J14:J16)/SUM(J6:J16)</f>
@@ -752,10 +741,10 @@
       </c>
       <c r="N14" s="1">
         <f t="shared" si="2"/>
-        <v>0.1934252280840936</v>
-      </c>
-    </row>
-    <row r="15" spans="7:14" x14ac:dyDescent="0.3">
+        <v>0.19260214200714001</v>
+      </c>
+    </row>
+    <row r="15" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G15">
         <v>-18</v>
       </c>
@@ -765,7 +754,7 @@
       </c>
       <c r="I15" s="1">
         <f>H15/$I$5</f>
-        <v>1.1744680851063831E-2</v>
+        <v>1.1794871794871797E-2</v>
       </c>
       <c r="J15" s="4">
         <v>330</v>
@@ -776,7 +765,7 @@
       </c>
       <c r="L15" s="1">
         <f t="shared" si="1"/>
-        <v>0.16478658536585367</v>
+        <v>0.16408536585365854</v>
       </c>
       <c r="M15" s="1">
         <f>SUM(J15:J16)/SUM(J6:J16)</f>
@@ -784,10 +773,10 @@
       </c>
       <c r="N15" s="1">
         <f t="shared" si="2"/>
-        <v>0.13399940499801666</v>
-      </c>
-    </row>
-    <row r="16" spans="7:14" x14ac:dyDescent="0.3">
+        <v>0.13342919476398254</v>
+      </c>
+    </row>
+    <row r="16" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G16">
         <v>-21</v>
       </c>
@@ -797,7 +786,7 @@
       </c>
       <c r="I16" s="1">
         <f>H16/$I$5</f>
-        <v>8.2978723404255328E-3</v>
+        <v>8.333333333333335E-3</v>
       </c>
       <c r="J16" s="4">
         <v>820</v>
@@ -808,7 +797,7 @@
       </c>
       <c r="L16" s="1">
         <f t="shared" ref="L16" si="4">K16*$I$5</f>
-        <v>9.6350000000000005E-2</v>
+        <v>9.5939999999999998E-2</v>
       </c>
       <c r="M16" s="1">
         <f>SUM(J16)/SUM(J6:J16)</f>
@@ -816,10 +805,10 @@
       </c>
       <c r="N16" s="1">
         <f t="shared" si="2"/>
-        <v>9.5547401824672737E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
+        <v>9.5140817136057113E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E24" s="3"/>
     </row>
   </sheetData>
@@ -835,13 +824,13 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="7:12" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
         <v>3</v>
       </c>
@@ -849,7 +838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="7:12" x14ac:dyDescent="0.25">
       <c r="I5">
         <v>10</v>
       </c>
@@ -857,7 +846,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
         <v>0</v>
       </c>
@@ -876,7 +865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G7">
         <v>6</v>
       </c>
@@ -900,7 +889,7 @@
         <v>2.1937000000000002</v>
       </c>
     </row>
-    <row r="8" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G8">
         <v>3</v>
       </c>
@@ -924,7 +913,7 @@
         <v>1.5447</v>
       </c>
     </row>
-    <row r="9" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G9">
         <v>0</v>
       </c>
@@ -948,7 +937,7 @@
         <v>1.0917000000000001</v>
       </c>
     </row>
-    <row r="10" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G10">
         <v>-3</v>
       </c>
@@ -972,7 +961,7 @@
         <v>0.77570000000000006</v>
       </c>
     </row>
-    <row r="11" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G11">
         <v>-6</v>
       </c>
@@ -996,7 +985,7 @@
         <v>0.54969999999999997</v>
       </c>
     </row>
-    <row r="12" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G12">
         <v>-9</v>
       </c>
@@ -1020,7 +1009,7 @@
         <v>0.38769999999999999</v>
       </c>
     </row>
-    <row r="13" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G13">
         <v>-12</v>
       </c>
@@ -1044,7 +1033,7 @@
         <v>0.2747</v>
       </c>
     </row>
-    <row r="14" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G14">
         <v>-18</v>
       </c>
@@ -1068,7 +1057,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="15" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G15">
         <v>-21</v>
       </c>
@@ -1092,22 +1081,22 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="7:12" x14ac:dyDescent="0.25">
       <c r="I16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J20">
         <v>76800</v>
       </c>
     </row>
-    <row r="21" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J21">
         <v>1270</v>
       </c>
     </row>
-    <row r="22" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J22">
         <f>J21+J20</f>
         <v>78070</v>
@@ -1122,17 +1111,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFC1236-186E-4F8D-ACF7-7671CAF785F5}">
   <dimension ref="G4:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="7:12" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
         <v>3</v>
       </c>
@@ -1140,7 +1129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="7:12" x14ac:dyDescent="0.25">
       <c r="I5">
         <v>11.75</v>
       </c>
@@ -1149,7 +1138,7 @@
         <v>104500</v>
       </c>
     </row>
-    <row r="6" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
         <v>0</v>
       </c>
@@ -1167,7 +1156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G7">
         <v>14</v>
       </c>
@@ -1190,7 +1179,7 @@
         <v>5.4533492822966503</v>
       </c>
     </row>
-    <row r="8" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G8">
         <v>12</v>
       </c>
@@ -1213,7 +1202,7 @@
         <v>4.5313397129186601</v>
       </c>
     </row>
-    <row r="9" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G9">
         <v>-17</v>
       </c>
@@ -1237,7 +1226,7 @@
         <v>0.14617224880382776</v>
       </c>
     </row>
-    <row r="10" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="7:12" x14ac:dyDescent="0.25">
       <c r="I10" t="s">
         <v>4</v>
       </c>

--- a/dBu meter calculation.xlsx
+++ b/dBu meter calculation.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Engineering\GitHub\DMH-Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9C0A4A-C26E-4D97-943F-33D4D6B1B5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AE5087-B57B-435F-BC84-2A974E62C7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34920A5C-097A-4EEA-8361-CAFEEE971C72}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="1" xr2:uid="{34920A5C-097A-4EEA-8361-CAFEEE971C72}"/>
   </bookViews>
   <sheets>
-    <sheet name="Out 11v75" sheetId="2" r:id="rId1"/>
-    <sheet name="10V" sheetId="3" r:id="rId2"/>
-    <sheet name="In 11v75" sheetId="5" r:id="rId3"/>
+    <sheet name="Out 11v70" sheetId="6" r:id="rId1"/>
+    <sheet name="Out 11v75" sheetId="2" r:id="rId2"/>
+    <sheet name="10V" sheetId="3" r:id="rId3"/>
+    <sheet name="In 11v75" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="6">
   <si>
     <t>dBu</t>
   </si>
@@ -438,11 +439,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62D02EB-515C-4A0B-BB92-62D83B04599D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4BAD485-D581-4A2A-9BC3-40AF4B5972F3}">
   <dimension ref="E4:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +465,7 @@
         <v>11.7</v>
       </c>
       <c r="J5">
-        <v>100000</v>
+        <v>56000</v>
       </c>
     </row>
     <row r="6" spans="7:14" x14ac:dyDescent="0.25">
@@ -478,7 +479,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="3">
-        <v>82000</v>
+        <v>47000</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
@@ -501,23 +502,23 @@
         <v>0.18679487179487184</v>
       </c>
       <c r="J7" s="4">
-        <v>5600</v>
+        <v>3300</v>
       </c>
       <c r="K7" s="1">
         <f>SUM(J7:J16)/J5</f>
-        <v>0.18840000000000001</v>
+        <v>0.1944642857142857</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" ref="L7:L15" si="1">K7*$I$5</f>
-        <v>2.2042799999999998</v>
+        <f t="shared" ref="L7:L16" si="1">K7*$I$5</f>
+        <v>2.2752321428571425</v>
       </c>
       <c r="M7" s="1">
         <f>SUM(J7:J16)/SUM(J6:J16)</f>
-        <v>0.18683062276874257</v>
+        <v>0.18811539125928486</v>
       </c>
       <c r="N7" s="1">
         <f>M7*$I$5</f>
-        <v>2.1859182863942879</v>
+        <v>2.2009500777336326</v>
       </c>
     </row>
     <row r="8" spans="7:14" x14ac:dyDescent="0.25">
@@ -533,23 +534,23 @@
         <v>0.13226495726495729</v>
       </c>
       <c r="J8" s="4">
-        <v>3900</v>
+        <v>2200</v>
       </c>
       <c r="K8" s="1">
         <f>SUM(J8:J16)/J5</f>
-        <v>0.13239999999999999</v>
+        <v>0.13553571428571429</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="1"/>
-        <v>1.5490799999999998</v>
+        <v>1.5857678571428571</v>
       </c>
       <c r="M8" s="1">
         <f>SUM(J8:J16)/SUM(J6:J16)</f>
-        <v>0.13129710432368108</v>
+        <v>0.13111072724131975</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" ref="N8:N16" si="2">M8*$I$5</f>
-        <v>1.5361761205870685</v>
+        <v>1.5339955087234409</v>
       </c>
     </row>
     <row r="9" spans="7:14" x14ac:dyDescent="0.25">
@@ -565,23 +566,23 @@
         <v>9.358974358974359E-2</v>
       </c>
       <c r="J9" s="4">
-        <v>2700</v>
+        <v>1560</v>
       </c>
       <c r="K9" s="1">
         <f>SUM(J9:J16)/J5</f>
-        <v>9.3399999999999997E-2</v>
+        <v>9.6250000000000002E-2</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="1"/>
-        <v>1.0927799999999999</v>
+        <v>1.126125</v>
       </c>
       <c r="M9" s="1">
         <f>SUM(J9:J16)/SUM(J6:J16)</f>
-        <v>9.2621975406584692E-2</v>
+        <v>9.3107617896009673E-2</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="2"/>
-        <v>1.0836771122570408</v>
+        <v>1.0893591293833131</v>
       </c>
     </row>
     <row r="10" spans="7:14" x14ac:dyDescent="0.25">
@@ -597,23 +598,23 @@
         <v>6.628205128205128E-2</v>
       </c>
       <c r="J10" s="4">
-        <v>2000</v>
+        <v>1100</v>
       </c>
       <c r="K10" s="1">
         <f>SUM(J10:J16)/J5</f>
-        <v>6.6400000000000001E-2</v>
+        <v>6.8392857142857144E-2</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="1"/>
-        <v>0.77688000000000001</v>
+        <v>0.80019642857142859</v>
       </c>
       <c r="M10" s="1">
         <f>SUM(J10:J16)/SUM(J6:J16)</f>
-        <v>6.5846886156287185E-2</v>
+        <v>6.6159958542062539E-2</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" si="2"/>
-        <v>0.77040856802856006</v>
+        <v>0.77407151494213167</v>
       </c>
     </row>
     <row r="11" spans="7:14" x14ac:dyDescent="0.25">
@@ -629,23 +630,23 @@
         <v>4.6923076923076928E-2</v>
       </c>
       <c r="J11" s="4">
-        <v>1300</v>
+        <v>820</v>
       </c>
       <c r="K11" s="1">
         <f>SUM(J11:J16)/J5</f>
-        <v>4.6399999999999997E-2</v>
+        <v>4.8750000000000002E-2</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="1"/>
-        <v>0.54287999999999992</v>
+        <v>0.57037499999999997</v>
       </c>
       <c r="M11" s="1">
         <f>SUM(J11:J16)/SUM(J6:J16)</f>
-        <v>4.6013486711622371E-2</v>
+        <v>4.7158403869407499E-2</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="2"/>
-        <v>0.53835779452598176</v>
+        <v>0.55175332527206766</v>
       </c>
     </row>
     <row r="12" spans="7:14" x14ac:dyDescent="0.25">
@@ -661,23 +662,23 @@
         <v>3.3205128205128207E-2</v>
       </c>
       <c r="J12" s="4">
-        <v>1000</v>
+        <v>560</v>
       </c>
       <c r="K12" s="1">
         <f>SUM(J12:J16)/J5</f>
-        <v>3.3399999999999999E-2</v>
+        <v>3.4107142857142857E-2</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="1"/>
-        <v>0.39077999999999996</v>
+        <v>0.3990535714285714</v>
       </c>
       <c r="M12" s="1">
         <f>SUM(J12:J16)/SUM(J6:J16)</f>
-        <v>3.3121777072590244E-2</v>
+        <v>3.2993608567973745E-2</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="2"/>
-        <v>0.38752479174930582</v>
+        <v>0.38602522024529279</v>
       </c>
     </row>
     <row r="13" spans="7:14" x14ac:dyDescent="0.25">
@@ -693,23 +694,23 @@
         <v>2.3504273504273508E-2</v>
       </c>
       <c r="J13" s="4">
-        <v>680</v>
+        <v>390</v>
       </c>
       <c r="K13" s="1">
         <f>SUM(J13:J16)/J5</f>
-        <v>2.3400000000000001E-2</v>
+        <v>2.4107142857142858E-2</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="1"/>
-        <v>0.27377999999999997</v>
+        <v>0.2820535714285714</v>
       </c>
       <c r="M13" s="1">
         <f>SUM(J13:J16)/SUM(J6:J16)</f>
-        <v>2.3205077350257834E-2</v>
+        <v>2.332008982553118E-2</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" si="2"/>
-        <v>0.27149940499801667</v>
+        <v>0.27284505095871481</v>
       </c>
     </row>
     <row r="14" spans="7:14" x14ac:dyDescent="0.25">
@@ -725,23 +726,23 @@
         <v>1.666666666666667E-2</v>
       </c>
       <c r="J14" s="4">
-        <v>510</v>
+        <v>270</v>
       </c>
       <c r="K14" s="1">
         <f>SUM(J14:J16)/J5</f>
-        <v>1.66E-2</v>
+        <v>1.7142857142857144E-2</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="1"/>
-        <v>0.19422</v>
+        <v>0.20057142857142857</v>
       </c>
       <c r="M14" s="1">
         <f>SUM(J14:J16)/SUM(J6:J16)</f>
-        <v>1.6461721539071796E-2</v>
+        <v>1.6583174987044393E-2</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="2"/>
-        <v>0.19260214200714001</v>
+        <v>0.19402314734841938</v>
       </c>
     </row>
     <row r="15" spans="7:14" x14ac:dyDescent="0.25">
@@ -757,23 +758,23 @@
         <v>1.1794871794871797E-2</v>
       </c>
       <c r="J15" s="4">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="K15" s="1">
-        <f>SUM(J15:J16)/J6</f>
-        <v>1.4024390243902439E-2</v>
+        <f>SUM(J15:J16)/J5</f>
+        <v>1.2321428571428572E-2</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" si="1"/>
-        <v>0.16408536585365854</v>
+        <v>0.14416071428571428</v>
       </c>
       <c r="M15" s="1">
         <f>SUM(J15:J16)/SUM(J6:J16)</f>
-        <v>1.1404204680682269E-2</v>
+        <v>1.1919157021938159E-2</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" si="2"/>
-        <v>0.13342919476398254</v>
+        <v>0.13945413715667646</v>
       </c>
     </row>
     <row r="16" spans="7:14" x14ac:dyDescent="0.25">
@@ -789,23 +790,23 @@
         <v>8.333333333333335E-3</v>
       </c>
       <c r="J16" s="4">
-        <v>820</v>
+        <v>470</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" ref="K16" si="3">J16/$J$5</f>
-        <v>8.2000000000000007E-3</v>
+        <v>8.3928571428571429E-3</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" ref="L16" si="4">K16*$I$5</f>
-        <v>9.5939999999999998E-2</v>
+        <f t="shared" si="1"/>
+        <v>9.819642857142856E-2</v>
       </c>
       <c r="M16" s="1">
         <f>SUM(J16)/SUM(J6:J16)</f>
-        <v>8.1316937723125739E-3</v>
+        <v>8.1188460874071517E-3</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" si="2"/>
-        <v>9.5140817136057113E-2</v>
+        <v>9.4990499222663671E-2</v>
       </c>
     </row>
     <row r="24" spans="5:5" x14ac:dyDescent="0.25">
@@ -817,6 +818,385 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62D02EB-515C-4A0B-BB92-62D83B04599D}">
+  <dimension ref="E4:N24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>11.7</v>
+      </c>
+      <c r="J5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>82000</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1">
+        <f>4.371/2</f>
+        <v>2.1855000000000002</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" ref="I7:I14" si="0">H7/$I$5</f>
+        <v>0.18679487179487184</v>
+      </c>
+      <c r="J7" s="4">
+        <v>5600</v>
+      </c>
+      <c r="K7" s="1">
+        <f>SUM(J7:J16)/J5</f>
+        <v>0.18490000000000001</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" ref="L7:L15" si="1">K7*$I$5</f>
+        <v>2.1633299999999998</v>
+      </c>
+      <c r="M7" s="1">
+        <f>SUM(J7:J16)/SUM(J6:J16)</f>
+        <v>0.18399840780177132</v>
+      </c>
+      <c r="N7" s="1">
+        <f>M7*$I$5</f>
+        <v>2.1527813712807244</v>
+      </c>
+    </row>
+    <row r="8" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <f>3.095/2</f>
+        <v>1.5475000000000001</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13226495726495729</v>
+      </c>
+      <c r="J8" s="4">
+        <v>3900</v>
+      </c>
+      <c r="K8" s="1">
+        <f>SUM(J8:J16)/J5</f>
+        <v>0.12889999999999999</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5081299999999997</v>
+      </c>
+      <c r="M8" s="1">
+        <f>SUM(J8:J16)/SUM(J6:J16)</f>
+        <v>0.12827146979798984</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" ref="N8:N16" si="2">M8*$I$5</f>
+        <v>1.500776196636481</v>
+      </c>
+    </row>
+    <row r="9" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>2.19/2</f>
+        <v>1.095</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>9.358974358974359E-2</v>
+      </c>
+      <c r="J9" s="4">
+        <v>2700</v>
+      </c>
+      <c r="K9" s="1">
+        <f>SUM(J9:J16)/J5</f>
+        <v>8.9899999999999994E-2</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0518299999999998</v>
+      </c>
+      <c r="M9" s="1">
+        <f>SUM(J9:J16)/SUM(J6:J16)</f>
+        <v>8.9461637973927755E-2</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0467011642949546</v>
+      </c>
+    </row>
+    <row r="10" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>-3</v>
+      </c>
+      <c r="H10" s="1">
+        <f>1.551/2</f>
+        <v>0.77549999999999997</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>6.628205128205128E-2</v>
+      </c>
+      <c r="J10" s="4">
+        <v>2000</v>
+      </c>
+      <c r="K10" s="1">
+        <f>SUM(J10:J16)/J5</f>
+        <v>6.2899999999999998E-2</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.73592999999999997</v>
+      </c>
+      <c r="M10" s="1">
+        <f>SUM(J10:J16)/SUM(J6:J16)</f>
+        <v>6.2593292864961694E-2</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.7323415265200518</v>
+      </c>
+    </row>
+    <row r="11" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>-6</v>
+      </c>
+      <c r="H11">
+        <f>1.098/2</f>
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>4.6923076923076928E-2</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1300</v>
+      </c>
+      <c r="K11" s="1">
+        <f>SUM(J11:J16)/J5</f>
+        <v>4.2900000000000001E-2</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.50192999999999999</v>
+      </c>
+      <c r="M11" s="1">
+        <f>SUM(J11:J16)/SUM(J6:J16)</f>
+        <v>4.2690815006468305E-2</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.49948253557567912</v>
+      </c>
+    </row>
+    <row r="12" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>-9</v>
+      </c>
+      <c r="H12" s="1">
+        <f>0.777/2</f>
+        <v>0.38850000000000001</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3205128205128207E-2</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1000</v>
+      </c>
+      <c r="K12" s="1">
+        <f>SUM(J12:J16)/J5</f>
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.34982999999999997</v>
+      </c>
+      <c r="M12" s="1">
+        <f>SUM(J12:J16)/SUM(J6:J16)</f>
+        <v>2.9754204398447608E-2</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="2"/>
+        <v>0.34812419146183698</v>
+      </c>
+    </row>
+    <row r="13" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>-12</v>
+      </c>
+      <c r="H13">
+        <f>0.55/2</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3504273504273508E-2</v>
+      </c>
+      <c r="J13" s="4">
+        <v>680</v>
+      </c>
+      <c r="K13" s="1">
+        <f>SUM(J13:J16)/J5</f>
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23283000000000001</v>
+      </c>
+      <c r="M13" s="1">
+        <f>SUM(J13:J16)/SUM(J6:J16)</f>
+        <v>1.9802965469200916E-2</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.2316946959896507</v>
+      </c>
+    </row>
+    <row r="14" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>-15</v>
+      </c>
+      <c r="H14">
+        <f>0.39/2</f>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.666666666666667E-2</v>
+      </c>
+      <c r="J14" s="4">
+        <v>510</v>
+      </c>
+      <c r="K14" s="1">
+        <f>SUM(J14:J16)/J5</f>
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.15326999999999999</v>
+      </c>
+      <c r="M14" s="1">
+        <f>SUM(J14:J16)/SUM(J6:J16)</f>
+        <v>1.3036122997313165E-2</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.15252263906856403</v>
+      </c>
+    </row>
+    <row r="15" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>-18</v>
+      </c>
+      <c r="H15">
+        <f>0.276/2</f>
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="I15" s="1">
+        <f>H15/$I$5</f>
+        <v>1.1794871794871797E-2</v>
+      </c>
+      <c r="J15" s="4">
+        <v>330</v>
+      </c>
+      <c r="K15" s="1">
+        <f>SUM(J15:J16)/J6</f>
+        <v>9.7560975609756097E-3</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11414634146341462</v>
+      </c>
+      <c r="M15" s="1">
+        <f>SUM(J15:J16)/SUM(J6:J16)</f>
+        <v>7.9609911433973536E-3</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="2"/>
+        <v>9.3143596377749036E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>-21</v>
+      </c>
+      <c r="H16" s="1">
+        <f>0.195/2</f>
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="I16" s="1">
+        <f>H16/$I$5</f>
+        <v>8.333333333333335E-3</v>
+      </c>
+      <c r="J16" s="4">
+        <v>470</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" ref="K16" si="3">J16/$J$5</f>
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" ref="L16" si="4">K16*$I$5</f>
+        <v>5.4989999999999997E-2</v>
+      </c>
+      <c r="M16" s="1">
+        <f>SUM(J16)/SUM(J6:J16)</f>
+        <v>4.6770822967459446E-3</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="2"/>
+        <v>5.4721862871927547E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B938745-C031-44EB-8DE0-C90EAC00962D}">
   <dimension ref="G4:L22"/>
   <sheetViews>
@@ -1107,7 +1487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFC1236-186E-4F8D-ACF7-7671CAF785F5}">
   <dimension ref="G4:L10"/>
   <sheetViews>

--- a/dBu meter calculation.xlsx
+++ b/dBu meter calculation.xlsx
@@ -5,30 +5,42 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Engineering\GitHub\DMH-Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\Documents\GitHub\DMH-Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AE5087-B57B-435F-BC84-2A974E62C7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1745A2BF-F278-4A66-841E-29393780ABAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="1" xr2:uid="{34920A5C-097A-4EEA-8361-CAFEEE971C72}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{34920A5C-097A-4EEA-8361-CAFEEE971C72}"/>
   </bookViews>
   <sheets>
     <sheet name="Out 11v70" sheetId="6" r:id="rId1"/>
     <sheet name="Out 11v75" sheetId="2" r:id="rId2"/>
     <sheet name="10V" sheetId="3" r:id="rId3"/>
     <sheet name="In 11v75" sheetId="5" r:id="rId4"/>
+    <sheet name="Out 11v70 (2)" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="8">
   <si>
     <t>dBu</t>
   </si>
@@ -47,6 +59,12 @@
   <si>
     <t>TOTAL R (Ohms)</t>
   </si>
+  <si>
+    <t>Vrms</t>
+  </si>
+  <si>
+    <t>Actual dBu</t>
+  </si>
 </sst>
 </file>
 
@@ -55,7 +73,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,13 +464,13 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="9" max="9" width="10.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.3984375" customWidth="1"/>
+    <col min="10" max="10" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="7:14">
       <c r="I4" t="s">
         <v>3</v>
       </c>
@@ -460,7 +478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="7:14">
       <c r="I5">
         <v>11.7</v>
       </c>
@@ -468,7 +486,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="6" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="7:14">
       <c r="G6" t="s">
         <v>0</v>
       </c>
@@ -489,7 +507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="7:14">
       <c r="G7">
         <v>6</v>
       </c>
@@ -521,7 +539,7 @@
         <v>2.2009500777336326</v>
       </c>
     </row>
-    <row r="8" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="7:14">
       <c r="G8">
         <v>3</v>
       </c>
@@ -553,7 +571,7 @@
         <v>1.5339955087234409</v>
       </c>
     </row>
-    <row r="9" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="7:14">
       <c r="G9">
         <v>0</v>
       </c>
@@ -585,7 +603,7 @@
         <v>1.0893591293833131</v>
       </c>
     </row>
-    <row r="10" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="7:14">
       <c r="G10">
         <v>-3</v>
       </c>
@@ -617,7 +635,7 @@
         <v>0.77407151494213167</v>
       </c>
     </row>
-    <row r="11" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="7:14">
       <c r="G11">
         <v>-6</v>
       </c>
@@ -649,7 +667,7 @@
         <v>0.55175332527206766</v>
       </c>
     </row>
-    <row r="12" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="7:14">
       <c r="G12">
         <v>-9</v>
       </c>
@@ -681,7 +699,7 @@
         <v>0.38602522024529279</v>
       </c>
     </row>
-    <row r="13" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="7:14">
       <c r="G13">
         <v>-12</v>
       </c>
@@ -713,7 +731,7 @@
         <v>0.27284505095871481</v>
       </c>
     </row>
-    <row r="14" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="7:14">
       <c r="G14">
         <v>-15</v>
       </c>
@@ -745,7 +763,7 @@
         <v>0.19402314734841938</v>
       </c>
     </row>
-    <row r="15" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="7:14">
       <c r="G15">
         <v>-18</v>
       </c>
@@ -777,7 +795,7 @@
         <v>0.13945413715667646</v>
       </c>
     </row>
-    <row r="16" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="7:14">
       <c r="G16">
         <v>-21</v>
       </c>
@@ -809,7 +827,7 @@
         <v>9.4990499222663671E-2</v>
       </c>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:5">
       <c r="E24" s="3"/>
     </row>
   </sheetData>
@@ -819,19 +837,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62D02EB-515C-4A0B-BB92-62D83B04599D}">
-  <dimension ref="E4:N24"/>
+  <dimension ref="E4:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="9" max="9" width="10.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.3984375" customWidth="1"/>
+    <col min="10" max="10" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="7:16">
       <c r="I4" t="s">
         <v>3</v>
       </c>
@@ -839,7 +857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="7:16">
       <c r="I5">
         <v>11.7</v>
       </c>
@@ -847,7 +865,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="7:16">
       <c r="G6" t="s">
         <v>0</v>
       </c>
@@ -867,8 +885,14 @@
       <c r="N6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="7:16">
       <c r="G7">
         <v>6</v>
       </c>
@@ -899,8 +923,16 @@
         <f>M7*$I$5</f>
         <v>2.1527813712807244</v>
       </c>
-    </row>
-    <row r="8" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="1">
+        <f>N7/SQRT(2)</f>
+        <v>1.5222463060446749</v>
+      </c>
+      <c r="P7">
+        <f>20*LOG10(O7/0.7746)</f>
+        <v>5.8681487239623698</v>
+      </c>
+    </row>
+    <row r="8" spans="7:16">
       <c r="G8">
         <v>3</v>
       </c>
@@ -931,8 +963,16 @@
         <f t="shared" ref="N8:N16" si="2">M8*$I$5</f>
         <v>1.500776196636481</v>
       </c>
-    </row>
-    <row r="9" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="1">
+        <f t="shared" ref="O8:O16" si="3">N8/SQRT(2)</f>
+        <v>1.0612090256850111</v>
+      </c>
+      <c r="P8">
+        <f t="shared" ref="P8:P16" si="4">20*LOG10(O8/0.7746)</f>
+        <v>2.7344688478469674</v>
+      </c>
+    </row>
+    <row r="9" spans="7:16">
       <c r="G9">
         <v>0</v>
       </c>
@@ -963,8 +1003,16 @@
         <f t="shared" si="2"/>
         <v>1.0467011642949546</v>
       </c>
-    </row>
-    <row r="10" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="1">
+        <f t="shared" si="3"/>
+        <v>0.74012949114881699</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="4"/>
+        <v>-0.39539566455651648</v>
+      </c>
+    </row>
+    <row r="10" spans="7:16">
       <c r="G10">
         <v>-3</v>
       </c>
@@ -995,8 +1043,16 @@
         <f t="shared" si="2"/>
         <v>0.7323415265200518</v>
       </c>
-    </row>
-    <row r="11" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="1">
+        <f t="shared" si="3"/>
+        <v>0.51784365954683642</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="4"/>
+        <v>-3.4975765903157132</v>
+      </c>
+    </row>
+    <row r="11" spans="7:16">
       <c r="G11">
         <v>-6</v>
       </c>
@@ -1027,8 +1083,16 @@
         <f t="shared" si="2"/>
         <v>0.49948253557567912</v>
       </c>
-    </row>
-    <row r="12" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="1">
+        <f t="shared" si="3"/>
+        <v>0.35318748798981364</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="4"/>
+        <v>-6.8214436555266067</v>
+      </c>
+    </row>
+    <row r="12" spans="7:16">
       <c r="G12">
         <v>-9</v>
       </c>
@@ -1059,8 +1123,16 @@
         <f t="shared" si="2"/>
         <v>0.34812419146183698</v>
       </c>
-    </row>
-    <row r="13" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="1">
+        <f t="shared" si="3"/>
+        <v>0.24616097647774893</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="4"/>
+        <v>-9.9571657327324985</v>
+      </c>
+    </row>
+    <row r="13" spans="7:16">
       <c r="G13">
         <v>-12</v>
       </c>
@@ -1091,8 +1163,16 @@
         <f t="shared" si="2"/>
         <v>0.2316946959896507</v>
       </c>
-    </row>
-    <row r="14" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="1">
+        <f t="shared" si="3"/>
+        <v>0.16383289069923757</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="4"/>
+        <v>-13.49352797102696</v>
+      </c>
+    </row>
+    <row r="14" spans="7:16">
       <c r="G14">
         <v>-15</v>
       </c>
@@ -1123,8 +1203,16 @@
         <f t="shared" si="2"/>
         <v>0.15252263906856403</v>
       </c>
-    </row>
-    <row r="15" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="1">
+        <f t="shared" si="3"/>
+        <v>0.10784979236984986</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="4"/>
+        <v>-17.125163586105806</v>
+      </c>
+    </row>
+    <row r="15" spans="7:16">
       <c r="G15">
         <v>-18</v>
       </c>
@@ -1155,8 +1243,16 @@
         <f t="shared" si="2"/>
         <v>9.3143596377749036E-2</v>
       </c>
-    </row>
-    <row r="16" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O15" s="1">
+        <f t="shared" si="3"/>
+        <v>6.5862468622809089E-2</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="4"/>
+        <v>-21.408789759382216</v>
+      </c>
+    </row>
+    <row r="16" spans="7:16">
       <c r="G16">
         <v>-21</v>
       </c>
@@ -1172,11 +1268,11 @@
         <v>470</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" ref="K16" si="3">J16/$J$5</f>
+        <f t="shared" ref="K16" si="5">J16/$J$5</f>
         <v>4.7000000000000002E-3</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" ref="L16" si="4">K16*$I$5</f>
+        <f t="shared" ref="L16" si="6">K16*$I$5</f>
         <v>5.4989999999999997E-2</v>
       </c>
       <c r="M16" s="1">
@@ -1187,8 +1283,16 @@
         <f t="shared" si="2"/>
         <v>5.4721862871927547E-2</v>
       </c>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="O16" s="1">
+        <f t="shared" si="3"/>
+        <v>3.8694200315900332E-2</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="4"/>
+        <v>-26.028632340506746</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5">
       <c r="E24" s="3"/>
     </row>
   </sheetData>
@@ -1204,13 +1308,13 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="9" max="9" width="10.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.3984375" customWidth="1"/>
+    <col min="10" max="10" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="7:12">
       <c r="I4" t="s">
         <v>3</v>
       </c>
@@ -1218,7 +1322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="7:12">
       <c r="I5">
         <v>10</v>
       </c>
@@ -1226,7 +1330,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="7:12">
       <c r="G6" t="s">
         <v>0</v>
       </c>
@@ -1245,7 +1349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="7:12">
       <c r="G7">
         <v>6</v>
       </c>
@@ -1269,7 +1373,7 @@
         <v>2.1937000000000002</v>
       </c>
     </row>
-    <row r="8" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="7:12">
       <c r="G8">
         <v>3</v>
       </c>
@@ -1293,7 +1397,7 @@
         <v>1.5447</v>
       </c>
     </row>
-    <row r="9" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="7:12">
       <c r="G9">
         <v>0</v>
       </c>
@@ -1317,7 +1421,7 @@
         <v>1.0917000000000001</v>
       </c>
     </row>
-    <row r="10" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="7:12">
       <c r="G10">
         <v>-3</v>
       </c>
@@ -1341,7 +1445,7 @@
         <v>0.77570000000000006</v>
       </c>
     </row>
-    <row r="11" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="7:12">
       <c r="G11">
         <v>-6</v>
       </c>
@@ -1365,7 +1469,7 @@
         <v>0.54969999999999997</v>
       </c>
     </row>
-    <row r="12" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="7:12">
       <c r="G12">
         <v>-9</v>
       </c>
@@ -1389,7 +1493,7 @@
         <v>0.38769999999999999</v>
       </c>
     </row>
-    <row r="13" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="7:12">
       <c r="G13">
         <v>-12</v>
       </c>
@@ -1413,7 +1517,7 @@
         <v>0.2747</v>
       </c>
     </row>
-    <row r="14" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="7:12">
       <c r="G14">
         <v>-18</v>
       </c>
@@ -1437,7 +1541,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="15" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="7:12">
       <c r="G15">
         <v>-21</v>
       </c>
@@ -1461,22 +1565,22 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="7:12">
       <c r="I16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="10:10">
       <c r="J20">
         <v>76800</v>
       </c>
     </row>
-    <row r="21" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="10:10">
       <c r="J21">
         <v>1270</v>
       </c>
     </row>
-    <row r="22" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="10:10">
       <c r="J22">
         <f>J21+J20</f>
         <v>78070</v>
@@ -1495,13 +1599,13 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="9" max="9" width="10.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.3984375" customWidth="1"/>
+    <col min="10" max="10" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="7:12">
       <c r="I4" t="s">
         <v>3</v>
       </c>
@@ -1509,7 +1613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="7:12">
       <c r="I5">
         <v>11.75</v>
       </c>
@@ -1518,7 +1622,7 @@
         <v>104500</v>
       </c>
     </row>
-    <row r="6" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="7:12">
       <c r="G6" t="s">
         <v>0</v>
       </c>
@@ -1536,7 +1640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="7:12">
       <c r="G7">
         <v>14</v>
       </c>
@@ -1559,7 +1663,7 @@
         <v>5.4533492822966503</v>
       </c>
     </row>
-    <row r="8" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="7:12">
       <c r="G8">
         <v>12</v>
       </c>
@@ -1582,7 +1686,7 @@
         <v>4.5313397129186601</v>
       </c>
     </row>
-    <row r="9" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="7:12">
       <c r="G9">
         <v>-17</v>
       </c>
@@ -1606,10 +1710,476 @@
         <v>0.14617224880382776</v>
       </c>
     </row>
-    <row r="10" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="7:12">
       <c r="I10" t="s">
         <v>4</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFD0610-6C73-49A0-8AD5-4029EC3BB905}">
+  <dimension ref="E4:P24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="9" max="9" width="10.3984375" customWidth="1"/>
+    <col min="10" max="10" width="15.69921875" customWidth="1"/>
+    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="7:16">
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="7:16">
+      <c r="I5">
+        <v>11.7</v>
+      </c>
+      <c r="J5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="7:16">
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>82000</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="7:16">
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1">
+        <f>4.371/2</f>
+        <v>2.1855000000000002</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" ref="I7:I14" si="0">H7/$I$5</f>
+        <v>0.18679487179487184</v>
+      </c>
+      <c r="J7" s="4">
+        <v>5600</v>
+      </c>
+      <c r="K7" s="1">
+        <f>SUM(J7:J16)/J5</f>
+        <v>0.1895</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" ref="L7:L16" si="1">K7*$I$5</f>
+        <v>2.2171499999999997</v>
+      </c>
+      <c r="M7" s="1">
+        <f>SUM(J7:J16)/SUM(J6:J16)</f>
+        <v>0.18771669143140168</v>
+      </c>
+      <c r="N7" s="1">
+        <f>M7*$I$5</f>
+        <v>2.1962852897473994</v>
+      </c>
+      <c r="O7" s="1">
+        <f>N7/SQRT(2)</f>
+        <v>1.5530082218006473</v>
+      </c>
+      <c r="P7" s="1">
+        <f>20*LOG10(O7/0.7746)</f>
+        <v>6.0419252457708001</v>
+      </c>
+    </row>
+    <row r="8" spans="7:16">
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <f>3.095/2</f>
+        <v>1.5475000000000001</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13226495726495729</v>
+      </c>
+      <c r="J8" s="4">
+        <v>3900</v>
+      </c>
+      <c r="K8" s="1">
+        <f>SUM(J8:J16)/J5</f>
+        <v>0.13350000000000001</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5619499999999999</v>
+      </c>
+      <c r="M8" s="1">
+        <f>SUM(J8:J16)/SUM(J6:J16)</f>
+        <v>0.13224368499257058</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" ref="N8:N16" si="2">M8*$I$5</f>
+        <v>1.5472511144130756</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" ref="O8:O16" si="3">N8/SQRT(2)</f>
+        <v>1.0940717551999284</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" ref="P8:P16" si="4">20*LOG10(O8/0.7746)</f>
+        <v>2.9993662737008591</v>
+      </c>
+    </row>
+    <row r="9" spans="7:16">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>2.19/2</f>
+        <v>1.095</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>9.358974358974359E-2</v>
+      </c>
+      <c r="J9" s="4">
+        <v>2700</v>
+      </c>
+      <c r="K9" s="1">
+        <f>SUM(J9:J16)/J5</f>
+        <v>9.4500000000000001E-2</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="1"/>
+        <v>1.10565</v>
+      </c>
+      <c r="M9" s="1">
+        <f>SUM(J9:J16)/SUM(J6:J16)</f>
+        <v>9.3610698365527489E-2</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0952451708766715</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="3"/>
+        <v>0.77445528738871339</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.6228701257612276E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="7:16">
+      <c r="G10">
+        <v>-3</v>
+      </c>
+      <c r="H10" s="1">
+        <f>1.551/2</f>
+        <v>0.77549999999999997</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>6.628205128205128E-2</v>
+      </c>
+      <c r="J10" s="4">
+        <v>2000</v>
+      </c>
+      <c r="K10" s="1">
+        <f>SUM(J10:J16)/J5</f>
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.78974999999999995</v>
+      </c>
+      <c r="M10" s="1">
+        <f>SUM(J10:J16)/SUM(J6:J16)</f>
+        <v>6.6864784546805348E-2</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.78231797919762247</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="3"/>
+        <v>0.55318234813479528</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.9241835836905223</v>
+      </c>
+    </row>
+    <row r="11" spans="7:16">
+      <c r="G11">
+        <v>-6</v>
+      </c>
+      <c r="H11">
+        <f>1.098/2</f>
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>4.6923076923076928E-2</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1390</v>
+      </c>
+      <c r="K11" s="1">
+        <f>SUM(J11:J16)/J5</f>
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.55574999999999997</v>
+      </c>
+      <c r="M11" s="1">
+        <f>SUM(J11:J16)/SUM(J6:J16)</f>
+        <v>4.7052996532937097E-2</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.55052005943536397</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="3"/>
+        <v>0.38927646720596704</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="4"/>
+        <v>-5.9763868478136883</v>
+      </c>
+    </row>
+    <row r="12" spans="7:16">
+      <c r="G12">
+        <v>-9</v>
+      </c>
+      <c r="H12" s="1">
+        <f>0.777/2</f>
+        <v>0.38850000000000001</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3205128205128207E-2</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1000</v>
+      </c>
+      <c r="K12" s="1">
+        <f>SUM(J12:J16)/J5</f>
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.39311999999999997</v>
+      </c>
+      <c r="M12" s="1">
+        <f>SUM(J12:J16)/SUM(J6:J16)</f>
+        <v>3.3283803863298662E-2</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="2"/>
+        <v>0.38942050520059435</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="3"/>
+        <v>0.27536187996043143</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="4"/>
+        <v>-8.9834734925141397</v>
+      </c>
+    </row>
+    <row r="13" spans="7:16">
+      <c r="G13">
+        <v>-12</v>
+      </c>
+      <c r="H13">
+        <f>0.55/2</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3504273504273508E-2</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1200</v>
+      </c>
+      <c r="K13" s="1">
+        <f>SUM(J13:J16)/J5</f>
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.27611999999999998</v>
+      </c>
+      <c r="M13" s="1">
+        <f>SUM(J13:J16)/SUM(J6:J16)</f>
+        <v>2.3377909856364537E-2</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.27352154531946504</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="3"/>
+        <v>0.19340893949601728</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="4"/>
+        <v>-12.05201898090889</v>
+      </c>
+    </row>
+    <row r="14" spans="7:16">
+      <c r="G14">
+        <v>-15</v>
+      </c>
+      <c r="H14">
+        <f>0.39/2</f>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.666666666666667E-2</v>
+      </c>
+      <c r="J14" s="4">
+        <v>560</v>
+      </c>
+      <c r="K14" s="1">
+        <f>SUM(J14:J16)/J5</f>
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.13571999999999998</v>
+      </c>
+      <c r="M14" s="1">
+        <f>SUM(J14:J16)/SUM(J6:J16)</f>
+        <v>1.1490837048043587E-2</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.13444279346210997</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="3"/>
+        <v>9.5065410938720382E-2</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="4"/>
+        <v>-18.22109925577265</v>
+      </c>
+    </row>
+    <row r="15" spans="7:16">
+      <c r="G15">
+        <v>-18</v>
+      </c>
+      <c r="H15">
+        <f>0.276/2</f>
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="I15" s="1">
+        <f>H15/$I$5</f>
+        <v>1.1794871794871797E-2</v>
+      </c>
+      <c r="J15" s="4">
+        <v>330</v>
+      </c>
+      <c r="K15" s="1">
+        <f>SUM(J15:J16)/J6</f>
+        <v>7.3170731707317077E-3</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="1"/>
+        <v>8.5609756097560982E-2</v>
+      </c>
+      <c r="M15" s="1">
+        <f>SUM(J15:J16)/SUM(J6:J16)</f>
+        <v>5.9435364041604752E-3</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="2"/>
+        <v>6.9539375928677552E-2</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="3"/>
+        <v>4.9171764278648465E-2</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="4"/>
+        <v>-23.947234032638146</v>
+      </c>
+    </row>
+    <row r="16" spans="7:16">
+      <c r="G16">
+        <v>-21</v>
+      </c>
+      <c r="H16" s="1">
+        <f>0.195/2</f>
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="I16" s="1">
+        <f>H16/$I$5</f>
+        <v>8.333333333333335E-3</v>
+      </c>
+      <c r="J16" s="4">
+        <v>270</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" ref="K16" si="5">J16/$J$5</f>
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="1"/>
+        <v>3.159E-2</v>
+      </c>
+      <c r="M16" s="1">
+        <f>SUM(J16)/SUM(J6:J16)</f>
+        <v>2.674591381872214E-3</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="2"/>
+        <v>3.1292719167904902E-2</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="3"/>
+        <v>2.2127293925391811E-2</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="4"/>
+        <v>-30.882983757131271</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
